--- a/test1.xlsx
+++ b/test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C86D991-9168-4256-A404-2B147624FAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D4AAA5-A9CA-4542-95F2-893841607298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{842F8968-EAFE-486E-8C43-B12F8F33E88D}"/>
+    <workbookView xWindow="2835" yWindow="2910" windowWidth="15375" windowHeight="7785" xr2:uid="{842F8968-EAFE-486E-8C43-B12F8F33E88D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,59 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>hello</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>world</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮田商店</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>房本商店</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中井商店</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北村商店</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>brains商店</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮田店</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>房本店</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中井店</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北村店</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブレインズ店</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -65,8 +118,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -383,12 +439,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680B2322-D17E-44F4-A208-B792E8D667DB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44630.467835648145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>44637.440439814818</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>44648.610590277778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>44648.610763888886</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44648.610868055555</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
